--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275360F-4760-C746-9B8D-ACC38FCE2B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD8C0E-F3A9-1049-8190-D9978658D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="2-1" sheetId="4" r:id="rId4"/>
     <sheet name="3-1" sheetId="5" r:id="rId5"/>
     <sheet name="4-1" sheetId="6" r:id="rId6"/>
-    <sheet name="6-1" sheetId="7" r:id="rId7"/>
-    <sheet name="7-1" sheetId="8" r:id="rId8"/>
-    <sheet name="8-1" sheetId="9" r:id="rId9"/>
+    <sheet name="5-1" sheetId="10" r:id="rId7"/>
+    <sheet name="6-1" sheetId="7" r:id="rId8"/>
+    <sheet name="7-1" sheetId="8" r:id="rId9"/>
+    <sheet name="8-1" sheetId="9" r:id="rId10"/>
+    <sheet name="9-1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="126">
   <si>
     <t>team</t>
   </si>
@@ -398,13 +400,37 @@
   </si>
   <si>
     <t>New Guy Adam</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>K. Kirby</t>
+  </si>
+  <si>
+    <t>New Guy White Helmet</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>07:28</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>Vincent Angotti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +463,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -471,12 +503,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -854,6 +887,394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3264661-45C4-7649-9C6C-3738F38C84F3}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D91DA3-FEA6-4049-83B3-5BA599E3E23C}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B266F0-1A72-124C-9FF1-B5743FF8FD56}">
   <dimension ref="A1:C13"/>
@@ -2356,8 +2777,169 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D111C5-33FB-9840-B6C3-E79131DD9C2E}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBE3B8-12FB-EB46-8BC1-5BF3AB2A3848}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2408,41 +2990,151 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2450,37 +3142,34 @@
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2491,19 +3180,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>104</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
@@ -2526,22 +3212,22 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
@@ -2561,25 +3247,22 @@
         <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>59</v>
@@ -2591,146 +3274,6 @@
         <v>69</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2739,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63B078D-3853-354D-9552-5AF17A4A0CF0}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -3025,213 +3568,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3264661-45C4-7649-9C6C-3738F38C84F3}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD8C0E-F3A9-1049-8190-D9978658D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E76FA-7EF0-744E-A762-0EAB79033C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="124">
   <si>
     <t>team</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Tara Laux</t>
   </si>
   <si>
-    <t>Dave Horner</t>
-  </si>
-  <si>
     <t>Patrick Joyce</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>06:30</t>
   </si>
   <si>
-    <t>Craig Kluebner</t>
-  </si>
-  <si>
     <t>David Horner</t>
   </si>
   <si>
@@ -393,9 +387,6 @@
     <t>07:32</t>
   </si>
   <si>
-    <t>Bill Meder</t>
-  </si>
-  <si>
     <t>New Guy Johnathan</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>2023-07-18</t>
   </si>
   <si>
-    <t>K. Kirby</t>
-  </si>
-  <si>
     <t>New Guy White Helmet</t>
   </si>
   <si>
@@ -424,6 +412,12 @@
   </si>
   <si>
     <t>Vincent Angotti</t>
+  </si>
+  <si>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>Tucker Road Ice Rink</t>
   </si>
 </sst>
 </file>
@@ -912,21 +906,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -935,103 +932,106 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -1040,16 +1040,16 @@
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1061,30 +1061,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D91DA3-FEA6-4049-83B3-5BA599E3E23C}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1093,50 +1108,53 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1145,31 +1163,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -1178,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
@@ -1187,22 +1208,25 @@
         <v>16</v>
       </c>
       <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -1211,33 +1235,36 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -1246,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>36</v>
@@ -1257,17 +1284,20 @@
       <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -1407,7 +1437,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,21 +1485,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1478,110 +1511,113 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -1593,33 +1629,33 @@
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -1628,33 +1664,33 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -1666,33 +1702,33 @@
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
@@ -1701,33 +1737,33 @@
         <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1739,112 +1775,112 @@
         <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1863,8 +1899,8 @@
     <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1877,21 +1913,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1900,101 +1939,113 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -2006,33 +2057,33 @@
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
@@ -2041,74 +2092,74 @@
         <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2141,21 +2192,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2164,59 +2218,62 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2228,33 +2285,33 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -2263,30 +2320,30 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -2301,89 +2358,89 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2419,21 +2476,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2442,177 +2502,180 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -2621,33 +2684,33 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -2659,33 +2722,33 @@
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
@@ -2697,77 +2760,77 @@
         <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2800,21 +2863,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2823,40 +2889,43 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2867,69 +2936,69 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBE3B8-12FB-EB46-8BC1-5BF3AB2A3848}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2962,21 +3031,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2985,59 +3057,62 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>24</v>
@@ -3049,33 +3124,33 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
@@ -3087,30 +3162,30 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -3122,33 +3197,33 @@
         <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -3157,33 +3232,33 @@
         <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
@@ -3192,33 +3267,33 @@
         <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -3227,33 +3302,33 @@
         <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -3265,16 +3340,16 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3307,21 +3382,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3330,142 +3408,145 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -3477,33 +3558,33 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -3515,54 +3596,54 @@
         <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E76FA-7EF0-744E-A762-0EAB79033C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CE9BC-F719-4F44-BDCA-8970380922EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="7" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Brian Lin</t>
   </si>
   <si>
-    <t>Billy Oehlschlager</t>
-  </si>
-  <si>
     <t>Brad Sarnell</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>Tucker Road Ice Rink</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
   </si>
 </sst>
 </file>
@@ -906,24 +906,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -932,124 +932,124 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1082,24 +1082,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1108,53 +1108,53 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1163,34 +1163,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -1199,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -1212,21 +1212,21 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -1235,36 +1235,36 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -1273,31 +1273,31 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B266F0-1A72-124C-9FF1-B5743FF8FD56}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1357,54 +1357,54 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1412,40 +1412,40 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1485,24 +1485,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1511,376 +1511,376 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1913,24 +1913,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1939,41 +1939,41 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1981,185 +1981,185 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2192,24 +2192,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2218,62 +2218,62 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -2282,165 +2282,165 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2476,24 +2476,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2502,335 +2502,335 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2863,24 +2863,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2889,43 +2889,43 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2936,69 +2936,69 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBE3B8-12FB-EB46-8BC1-5BF3AB2A3848}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3031,24 +3031,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3057,299 +3057,299 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3382,24 +3382,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -3408,221 +3408,221 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -3631,19 +3631,19 @@
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CE9BC-F719-4F44-BDCA-8970380922EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412C043-08D3-3B44-912C-EAA2F6286BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="126">
   <si>
     <t>team</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Free Agent 2023-22</t>
   </si>
 </sst>
 </file>
@@ -820,9 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473F62D-830C-4A43-B2A4-78B6B49A7A99}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -874,6 +882,14 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1307,9 +1323,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B266F0-1A72-124C-9FF1-B5743FF8FD56}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1319,7 +1335,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1329,8 +1345,11 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1340,8 +1359,11 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1351,8 +1373,11 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,8 +1387,11 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1451,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>

--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412C043-08D3-3B44-912C-EAA2F6286BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7F2C2-C63F-B44D-B0C3-029DE40DB68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="125">
   <si>
     <t>team</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>13:30</t>
-  </si>
-  <si>
-    <t>Meredith Henkleman</t>
   </si>
   <si>
     <t>2023-07-25</t>
@@ -828,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473F62D-830C-4A43-B2A4-78B6B49A7A99}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -886,10 +883,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +931,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -948,10 +945,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1003,13 +1000,13 @@
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -1041,13 +1038,13 @@
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1110,7 +1107,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1124,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -1215,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>27</v>
@@ -1251,13 +1248,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>35</v>
@@ -1289,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>35</v>
@@ -1346,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,7 +1371,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,7 +1522,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1542,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1953,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1970,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2199,7 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5950B8-A541-D84A-A67A-DE6CFFAF1428}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2232,7 +2231,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2249,7 +2248,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2418,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
@@ -2516,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2533,7 +2532,7 @@
         <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2903,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2917,10 +2916,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3071,7 +3070,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3085,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3140,7 +3139,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -3178,7 +3177,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -3251,7 +3250,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -3286,7 +3285,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
@@ -3321,7 +3320,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -3356,7 +3355,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -3422,7 +3421,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3436,10 +3435,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3542,7 +3541,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -3574,7 +3573,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -3612,7 +3611,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -3650,7 +3649,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>

--- a/data/xlsx/2023-22.xlsx
+++ b/data/xlsx/2023-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7F2C2-C63F-B44D-B0C3-029DE40DB68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A47C96-5B05-054C-A522-273898A70668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{2A54CF6E-8BCD-1C4F-8EC6-52FE0B81744D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B266F0-1A72-124C-9FF1-B5743FF8FD56}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2196,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5950B8-A541-D84A-A67A-DE6CFFAF1428}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
